--- a/data/trans_bre/P4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44,88%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 15,99</t>
+          <t>-23,36; 18,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 17,83</t>
+          <t>-24,91; 17,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 21,07</t>
+          <t>-24,06; 21,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 15,39</t>
+          <t>-18,85; 25,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 146,14</t>
+          <t>-13,88; 33,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,03; 174,3</t>
+          <t>-80,53; 220,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 140,45</t>
+          <t>-74,99; 271,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,25; 103,18</t>
+          <t>-65,59; 202,27</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-53,14; 271,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-41,88; 254,02</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-17,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-13,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,18%</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>-33,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,34%</t>
+          <t>-25,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>-22,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,71%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 12,79</t>
+          <t>-43,25; 5,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 14,77</t>
+          <t>-42,16; 10,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 15,96</t>
+          <t>-38,28; 15,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 10,94</t>
+          <t>-40,25; 12,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 49,93</t>
+          <t>-17,38; 25,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 50,52</t>
+          <t>-64,39; 18,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 63,42</t>
+          <t>-62,65; 32,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 38,58</t>
+          <t>-58,2; 50,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-63,97; 38,26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-50,44; 271,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>55,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>59,87%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-18,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 17,92</t>
+          <t>-6,88; 17,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 19,63</t>
+          <t>-4,15; 19,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 20,52</t>
+          <t>-4,82; 19,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 19,19</t>
+          <t>-8,86; 16,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 146,73</t>
+          <t>-20,25; 8,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 219,41</t>
+          <t>-29,55; 208,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 195,09</t>
+          <t>-22,32; 292,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 158,36</t>
+          <t>-25,04; 263,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,75; 162,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-53,91; 48,39</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>-16,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>-13,85%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-17,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 11,34</t>
+          <t>-12,47; 9,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 10,66</t>
+          <t>-13,9; 8,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 11,8</t>
+          <t>-14,48; 8,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,34</t>
+          <t>-14,68; 7,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 84,26</t>
+          <t>-11,42; 13,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 74,35</t>
+          <t>-52,27; 75,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 75,54</t>
+          <t>-54,77; 61,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 68,0</t>
+          <t>-52,42; 65,54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-56,18; 54,27</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,45; 89,39</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37,85%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 16,94</t>
+          <t>-16,07; 18,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 17,22</t>
+          <t>-19,65; 17,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 15,6</t>
+          <t>-20,2; 18,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 18,47</t>
+          <t>-15,1; 20,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 121,49</t>
+          <t>-13,03; 25,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,1; 139,6</t>
+          <t>-63,45; 140,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 126,77</t>
+          <t>-69,65; 148,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 146,75</t>
+          <t>-70,98; 152,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-62,54; 180,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-51,8; 206,09</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>104,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>58,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>99,65%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>88,13%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>147,21%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 19,48</t>
+          <t>-5,61; 27,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 18,11</t>
+          <t>-8,86; 24,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 21,82</t>
+          <t>-5,62; 26,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 21,92</t>
+          <t>-6,56; 24,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 187,65</t>
+          <t>-4,79; 30,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 145,44</t>
+          <t>-51,55; 721,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 234,36</t>
+          <t>-57,75; 410,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 215,95</t>
+          <t>-52,26; 652,17</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-55,87; 610,89</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-71,65; 1202,63</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>-5,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,83</t>
+          <t>-11,21; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,61</t>
+          <t>-12,05; 6,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 9,01</t>
+          <t>-10,39; 6,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,36</t>
+          <t>-13,23; 6,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 41,12</t>
+          <t>-4,01; 10,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 46,97</t>
+          <t>-37,89; 31,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 48,18</t>
+          <t>-37,42; 36,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 44,08</t>
+          <t>-34,82; 37,25</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-39,63; 33,86</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 62,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
